--- a/Task_5_analysis.xlsx
+++ b/Task_5_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nippe\python\MRSP\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1DE96D-586B-4A36-87D0-D1E4D3AE2962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F31F7CD-FD4C-47D5-BC3F-82684F322D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{035B2E2F-5794-4C39-AECF-9E9E8DF7B42A}"/>
   </bookViews>
@@ -2610,7 +2610,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
